--- a/assets/Projektbudget.xlsx
+++ b/assets/Projektbudget.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="D15" sqref="D15:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,11 +609,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <f>C15*D15</f>
-        <v>1280</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -627,11 +627,11 @@
         <v>40</v>
       </c>
       <c r="D16" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ref="E16:E27" si="0">C16*D16</f>
-        <v>6400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -645,11 +645,11 @@
         <v>88</v>
       </c>
       <c r="D17" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>14080</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,11 +663,11 @@
         <v>88</v>
       </c>
       <c r="D18" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>14080</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,11 +681,11 @@
         <v>88</v>
       </c>
       <c r="D19" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>14080</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,11 +699,11 @@
         <v>88</v>
       </c>
       <c r="D20" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>14080</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,11 +717,11 @@
         <v>64</v>
       </c>
       <c r="D21" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>10240</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,11 +735,11 @@
         <v>64</v>
       </c>
       <c r="D22" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>10240</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,11 +753,11 @@
         <v>32</v>
       </c>
       <c r="D23" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -771,11 +771,11 @@
         <v>32</v>
       </c>
       <c r="D24" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,11 +789,11 @@
         <v>24</v>
       </c>
       <c r="D25" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -807,11 +807,11 @@
         <v>32</v>
       </c>
       <c r="D26" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,11 +825,11 @@
         <v>16</v>
       </c>
       <c r="D27" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
       </c>
       <c r="E30" s="6">
         <f>SUM(E3:E27)</f>
-        <v>106940</v>
+        <v>67100</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Projektbudget.xlsx
+++ b/assets/Projektbudget.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvanadrian/HSR-HS2016/hsr-pmqm-project/assets/"/>
@@ -150,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +178,12 @@
       <u val="double"/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,10 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D27"/>
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,6 +858,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>